--- a/mbs-perturbation/bottleneck/knn/smote/bottleneck-knn-smote-results.xlsx
+++ b/mbs-perturbation/bottleneck/knn/smote/bottleneck-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6380368098159509</v>
+        <v>0.6560509554140127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9674418604651163</v>
+        <v>0.9581395348837209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7689463955637706</v>
+        <v>0.7788279773156899</v>
       </c>
       <c r="E2" t="n">
-        <v>0.75335857220119</v>
+        <v>0.7851270957274202</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7034482758620689</v>
+        <v>0.7627737226277372</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9488372093023256</v>
+        <v>0.9720930232558139</v>
       </c>
       <c r="D3" t="n">
-        <v>0.807920792079208</v>
+        <v>0.8548057259713702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8333693888588427</v>
+        <v>0.8102650081124934</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7854406130268199</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9534883720930233</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8613445378151261</v>
+        <v>0.963855421686747</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8907842076798269</v>
+        <v>0.9992536506219578</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7819548872180451</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9674418604651163</v>
+        <v>0.9441860465116279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8648648648648648</v>
+        <v>0.9712918660287081</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9519524067063279</v>
+        <v>0.9994375338020551</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7573529411764706</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9581395348837209</v>
+        <v>0.9627906976744186</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8459958932238193</v>
+        <v>0.9810426540284359</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9038939967550028</v>
+        <v>0.9998269334775555</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.733246705419871</v>
+        <v>0.8837649356083499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9590697674418603</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8298144967093577</v>
+        <v>0.9099647290061903</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8666717144402381</v>
+        <v>0.9187820443482965</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/knn/smote/bottleneck-knn-smote-results.xlsx
+++ b/mbs-perturbation/bottleneck/knn/smote/bottleneck-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6560509554140127</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9581395348837209</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7788279773156899</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7851270957274202</v>
+        <v>0.7915227629513344</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7627737226277372</v>
+        <v>0.9845360824742269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9720930232558139</v>
+        <v>0.9744897959183674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8548057259713702</v>
+        <v>0.9794871794871796</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8102650081124934</v>
+        <v>0.9987441130298274</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.9302325581395349</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.963855421686747</v>
+        <v>0.9873417721518987</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992536506219578</v>
+        <v>0.9965724751439038</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9441860465116279</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9712918660287081</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994375338020551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9947089947089947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9627906976744186</v>
+        <v>0.9641025641025641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9810426540284359</v>
+        <v>0.9791666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998269334775555</v>
+        <v>0.9998159105851414</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8837649356083499</v>
+        <v>0.9308490154366442</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9534883720930232</v>
+        <v>0.9877184720041863</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9099647290061903</v>
+        <v>0.9539050060140901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9187820443482965</v>
+        <v>0.9573310523420414</v>
       </c>
     </row>
   </sheetData>
